--- a/inst/aggregation_tables/targeted_aggregations.xlsx
+++ b/inst/aggregation_tables/targeted_aggregations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mkh2/github/CLPFUDecompositionDatabase/inst/aggregation_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE4C53-CFBF-A34A-B56F-82FCF8ECDB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6180C2-1D4B-F94E-A664-D542D6D8044C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9920" yWindow="1680" windowWidth="17060" windowHeight="17440" activeTab="1" xr2:uid="{6196F350-644F-294F-9730-D810A8B27C87}"/>
   </bookViews>
@@ -497,7 +497,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,72 +522,72 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2000</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4">
+        <v>2001</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
+      <c r="B5">
+        <v>2001</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
+      <c r="B6">
+        <v>2002</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -595,10 +595,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>2000</v>
+        <v>2002</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -609,10 +609,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>2003</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -623,10 +623,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>2001</v>
+        <v>2003</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -637,10 +637,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -651,10 +651,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2002</v>
+        <v>2004</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -665,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -679,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -693,10 +693,10 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>2003</v>
+        <v>2006</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -707,10 +707,10 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -721,10 +721,10 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -735,10 +735,10 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -749,10 +749,10 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -763,10 +763,10 @@
         <v>10</v>
       </c>
       <c r="B19">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -774,72 +774,72 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20">
-        <v>2006</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21">
-        <v>2007</v>
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22">
-        <v>2007</v>
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B23">
-        <v>2008</v>
+      <c r="B23" t="s">
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>10</v>
       </c>
-      <c r="B24">
-        <v>2008</v>
+      <c r="B24" t="s">
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
